--- a/IAST_Result/IAST NDP TP_ESEM.xlsx
+++ b/IAST_Result/IAST NDP TP_ESEM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saika\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saika\Dropbox\MSOE_CyberSecurity_Course\vulnerability-detection-compare\IAST_Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15810D18-CE2B-4CEC-975A-EB8E6B137DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA27F2-20DD-44F5-AFFE-9112D8C6BDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1_Baseline" sheetId="4" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId7"/>
-    <pivotCache cacheId="13" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
     <pivotCache cacheId="17" r:id="rId9"/>
   </pivotCaches>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="655">
   <si>
     <t>Severity_ID</t>
   </si>
@@ -1460,9 +1460,6 @@
     <t>Possibly a false positive? Seems to be generating random numbers for thread IDs (or at least that would be my guess based on the information provided)</t>
   </si>
   <si>
-    <t xml:space="preserve">Contrast </t>
-  </si>
-  <si>
     <t>OWASP 2021</t>
   </si>
   <si>
@@ -1661,9 +1658,6 @@
     <t>2022-03-25T02:27:00.000Z</t>
   </si>
   <si>
-    <t>Contrast Unique</t>
-  </si>
-  <si>
     <t>'SHA1' hash algorithm used at Security.java</t>
   </si>
   <si>
@@ -2004,6 +1998,33 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">IAST1 </t>
+  </si>
+  <si>
+    <t>IAST1</t>
+  </si>
+  <si>
+    <t>IAST1 Unique</t>
+  </si>
+  <si>
+    <t>IAST2</t>
+  </si>
+  <si>
+    <t>IAST2-Verified</t>
+  </si>
+  <si>
+    <t>IAST2ServerLink</t>
+  </si>
+  <si>
+    <t>862 may be a subset of this issue, but if you look at the "Remediation" tab in IAST2 it talks about how this occurs due to the X-Frame Options header not being set (Vulnerability 862)</t>
+  </si>
+  <si>
+    <t>username=nurse&amp;password=IAST2-redacted-authentication-info&amp;sessionLocation=6&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page</t>
+  </si>
+  <si>
+    <t>username=nurse&amp;password=IAST2-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Fhome.page</t>
   </si>
 </sst>
 </file>
@@ -2366,6 +2387,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2380,30 +2413,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,7 +2443,184 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Saikath Bhattacharya" refreshedDate="45583.431433912039" refreshedVersion="8" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Saikath Bhattacharya" refreshedDate="45583.585833101853" refreshedVersion="8" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:X93" sheet="RQ1_Baseline"/>
+  </cacheSource>
+  <cacheFields count="24">
+    <cacheField name="VulnerabilityID" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="VulnerabilityName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Rule Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Severity" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Severity_ID" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="5 - Note"/>
+        <s v="2 - High"/>
+        <s v="4 - Low"/>
+        <s v="3 - Medium"/>
+        <s v="5 - Informative"/>
+        <s v="1 - Critical"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="URL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SourceName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SourceType" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CodeLocation" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="VerificationTag" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CWE" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CWE Link" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OWASP2021" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="More Than 1 Top Ten" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="# Top Ten" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="A01:2021 - Broken Access Control" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A02:2021 - Cryptographic Failures" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A03:2021 - Injection" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A04:2021 - Insecure Design" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A05:2021 - Security Misconfiguration" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A07:2021 - Identification and Authentication Failures" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A08:2021 - Software and Data Integrity Failures" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="A09:2021 - Security Logging and Monitoring Failures" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Saikath Bhattacharya" refreshedDate="45583.585833333331" refreshedVersion="8" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N93" sheet="RQ1_Baseline"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="VulnerabilityID" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="VulnerabilityName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Rule Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Severity" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Severity_ID" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="5 - Note"/>
+        <s v="2 - High"/>
+        <s v="4 - Low"/>
+        <s v="3 - Medium"/>
+        <s v="5 - Informative"/>
+        <s v="1 - Critical"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="URL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SourceName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SourceType" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CodeLocation" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="VerificationTag" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CWE" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CWE Link" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OWASP2021" numFmtId="0">
+      <sharedItems containsBlank="1" count="16">
+        <s v="A04:2021 - Insecure Design"/>
+        <s v="A01:2021 - Broken Access Control;A07:2021 - Identification and Authentication Failures"/>
+        <s v="A04:2021 - Insecure Design;A05:2021 - Security Misconfiguration"/>
+        <s v="A03:2021 - Injection;A05:2021 - Security Misconfiguration"/>
+        <s v="A02:2021 - Cryptographic Failures"/>
+        <s v="A05:2021 - Security Misconfiguration"/>
+        <s v="A08:2021 - Software and Data Integrity Failures"/>
+        <s v="A09:2021 - Security Logging and Monitoring Failures"/>
+        <s v="A07:2021 - Identification and Authentication Failures"/>
+        <s v="A03:2021 - Injection;A09:2021 - Security Logging and Monitoring Failures"/>
+        <s v="A03:2021 - Injection"/>
+        <s v="A01:2021 - Broken Access Control;A04:2021 - Insecure Design;A09:2021 - Security Logging and Monitoring Failures"/>
+        <s v="A03:2021 - Injection;A08:2021 - Software and Data Integrity Failures"/>
+        <s v="A03:2021 - Injection;A04:2021 - Insecure Design"/>
+        <s v="A02:2021 - Cryptographic Failures;A05:2021 - Security Misconfiguration"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Saikath Bhattacharya" refreshedDate="45583.585833449077" refreshedVersion="8" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AJ93" sheet="RQ1_Baseline"/>
   </cacheSource>
@@ -2558,183 +2756,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Saikath Bhattacharya" refreshedDate="45583.431434143517" refreshedVersion="8" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N93" sheet="RQ1_Baseline"/>
-  </cacheSource>
-  <cacheFields count="14">
-    <cacheField name="VulnerabilityID" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="VulnerabilityName" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Rule Name" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Severity" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Severity_ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="5 - Note"/>
-        <s v="2 - High"/>
-        <s v="4 - Low"/>
-        <s v="3 - Medium"/>
-        <s v="5 - Informative"/>
-        <s v="1 - Critical"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="URL" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SourceName" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SourceType" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CodeLocation" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="VerificationTag" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CWE" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CWE Link" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="OWASP2021" numFmtId="0">
-      <sharedItems containsBlank="1" count="16">
-        <s v="A04:2021 - Insecure Design"/>
-        <s v="A01:2021 - Broken Access Control;A07:2021 - Identification and Authentication Failures"/>
-        <s v="A04:2021 - Insecure Design;A05:2021 - Security Misconfiguration"/>
-        <s v="A03:2021 - Injection;A05:2021 - Security Misconfiguration"/>
-        <s v="A02:2021 - Cryptographic Failures"/>
-        <s v="A05:2021 - Security Misconfiguration"/>
-        <s v="A08:2021 - Software and Data Integrity Failures"/>
-        <s v="A09:2021 - Security Logging and Monitoring Failures"/>
-        <s v="A07:2021 - Identification and Authentication Failures"/>
-        <s v="A03:2021 - Injection;A09:2021 - Security Logging and Monitoring Failures"/>
-        <s v="A03:2021 - Injection"/>
-        <s v="A01:2021 - Broken Access Control;A04:2021 - Insecure Design;A09:2021 - Security Logging and Monitoring Failures"/>
-        <s v="A03:2021 - Injection;A08:2021 - Software and Data Integrity Failures"/>
-        <s v="A03:2021 - Injection;A04:2021 - Insecure Design"/>
-        <s v="A02:2021 - Cryptographic Failures;A05:2021 - Security Misconfiguration"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Saikath Bhattacharya" refreshedDate="45583.431434375001" refreshedVersion="8" recordCount="92" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:X93" sheet="RQ1_Baseline"/>
-  </cacheSource>
-  <cacheFields count="24">
-    <cacheField name="VulnerabilityID" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="VulnerabilityName" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Rule Name" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Severity" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Severity_ID" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="5 - Note"/>
-        <s v="2 - High"/>
-        <s v="4 - Low"/>
-        <s v="3 - Medium"/>
-        <s v="5 - Informative"/>
-        <s v="1 - Critical"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="URL" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SourceName" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SourceType" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CodeLocation" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="VerificationTag" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CWE" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CWE Link" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="OWASP2021" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="More Than 1 Top Ten" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="# Top Ten" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
-    </cacheField>
-    <cacheField name="A01:2021 - Broken Access Control" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A02:2021 - Cryptographic Failures" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A03:2021 - Injection" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A04:2021 - Insecure Design" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A05:2021 - Security Misconfiguration" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A07:2021 - Identification and Authentication Failures" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A08:2021 - Software and Data Integrity Failures" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-    <cacheField name="A09:2021 - Security Logging and Monitoring Failures" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
   <r>
@@ -2762,18 +2783,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/initialsetup"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-002"/>
@@ -2800,18 +2809,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/dwr/interface/DWRPatientService.js"/>
-    <m/>
-    <s v="v=2.1.3-33f4e7"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-011"/>
@@ -2838,18 +2835,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/58/detections/27421"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-012"/>
@@ -2876,18 +2861,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/729/detections/19683"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-014"/>
@@ -2913,18 +2886,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <m/>
-    <s v="/openmrs/referenceapplication/login.page"/>
-    <s v="username=nurse&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=6&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -2952,18 +2913,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.action"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/279/detections/28125"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-016"/>
@@ -2990,18 +2939,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/users/user.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/997/detections/27990"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-017"/>
@@ -3028,18 +2965,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/78/detections/27818"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-018"/>
@@ -3066,18 +2991,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/module/dataexchange/import"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/882/detections/27662"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-019"/>
@@ -3104,18 +3017,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/module/owa/addApp"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/875/detections/27642"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-020"/>
@@ -3142,18 +3043,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/users/alert.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/857/detections/26625"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-021"/>
@@ -3180,18 +3069,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/ms/call/plaincall/DWRUserService.getAllUsers.dwr"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/856/detections/26619"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-022"/>
@@ -3218,18 +3095,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/patients/patient.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/679/detections/16751"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-023"/>
@@ -3256,18 +3121,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/ms/call/plaincall/DWRPatientService.findCountAndPatients.dwr"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/644/detections/7797"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST1-024"/>
@@ -3294,18 +3147,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-025"/>
@@ -3332,18 +3173,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/rest/v1/:resource"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/873/detections/27494"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST12-001"/>
@@ -3370,18 +3199,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/61/detections/19660"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-002"/>
@@ -3408,18 +3225,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/owa/addApp"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/874/detections/27632"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-003"/>
@@ -3446,18 +3251,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-004"/>
@@ -3484,18 +3277,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <s v="/openmrs/**/*.action"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/71/detections/28122"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-005"/>
@@ -3522,18 +3303,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/scripts/validation.js"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/66/detections/27977"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-006"/>
@@ -3560,18 +3329,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/rest/emrapi/conditionhistory"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/84/detections/20320"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-001"/>
@@ -3598,18 +3355,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/65/detections/28083"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-004"/>
@@ -3636,18 +3381,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/rest/emrapi/conditionhistory"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/85/detections/20321"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-005"/>
@@ -3674,18 +3407,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/findPatient.htm"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/643/detections/7793"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-006"/>
@@ -3712,18 +3433,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/**/*.action"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/47/detections/28124"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-007"/>
@@ -3750,18 +3459,6 @@
     <n v="1"/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/52/detections/27417"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-008"/>
@@ -3788,18 +3485,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/rest/v1/:resource/:uuid"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/86/detections/28101"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-009"/>
@@ -3826,18 +3511,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/admin/users/users.list"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/883/detections/27691"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-010"/>
@@ -3864,18 +3537,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/864/detections/27078"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-011"/>
@@ -3902,18 +3563,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/rest/v1/:resource"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/781/detections/20176"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-012"/>
@@ -3940,18 +3589,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/rest/v1/:resource"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/780/detections/20175"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-013"/>
@@ -3978,18 +3615,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/rest/v1/:resource"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/92/detections/19250"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-014"/>
@@ -4016,18 +3641,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/rest/v1/:resource/:uuid"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/725/detections/27001"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-015"/>
@@ -4054,18 +3667,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/708/detections/26036"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-016"/>
@@ -4092,18 +3693,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-017"/>
@@ -4130,18 +3719,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/56/detections/27422"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-018"/>
@@ -4168,18 +3745,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/59/detections/27419"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-019"/>
@@ -4206,18 +3771,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/ms/uiframework/resource/uicommons/styles/styleguide/jquery-ui-1.9.2.custom.min.css"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/60/detections/27425"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-020"/>
@@ -4244,18 +3797,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/57/detections/27424"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <b v="1"/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-021"/>
@@ -4282,18 +3823,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/48/detections/27416"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-022"/>
@@ -4318,18 +3847,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/51/detections/27420"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <b v="1"/>
     <m/>
     <m/>
   </r>
@@ -4358,18 +3875,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/owa/settings"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/902/detections/27836"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-024"/>
@@ -4396,18 +3901,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/863/detections/27072"/>
-    <s v="Customer code - direct calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-025"/>
@@ -4434,18 +3927,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/patients/patient.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/683/detections/16736"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-026"/>
@@ -4472,18 +3953,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/index.htm"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/853/detections/26600"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-027"/>
@@ -4510,18 +3979,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/dataexchange/import"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/188/detections/3510"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-028"/>
@@ -4548,18 +4005,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/initialsetup"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-029"/>
@@ -4586,18 +4031,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/moduleResources/legacyui/scripts/html-sanitizer-min.js"/>
-    <m/>
-    <s v="v=2.1.3-33f4e7"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-030"/>
@@ -4624,18 +4057,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/owa/SystemAdministration/css/moduleManagement.css"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-031"/>
@@ -4662,18 +4083,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <s v="/openmrs/admin/maintenance/serverLog.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/284/detections/4718"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-032"/>
@@ -4700,18 +4109,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/patients/patient.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/637/detections/7767"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-033"/>
@@ -4738,18 +4135,6 @@
     <m/>
     <m/>
     <n v="1"/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/72/detections/28082"/>
-    <s v="Customer code - direct calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-034"/>
@@ -4775,18 +4160,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <s v="/openmrs/**/*.action"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/869/detections/27925"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -4813,18 +4186,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <s v="/openmrs/login.htm"/>
-    <s v="username=nurse&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Fhome.page"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -4852,18 +4213,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/860/detections/28010"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-037"/>
@@ -4890,18 +4239,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/278/detections/27813"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-038"/>
@@ -4928,18 +4265,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/88/detections/27171"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-039"/>
@@ -4966,18 +4291,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/67/detections/19682"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-040"/>
@@ -5004,18 +4317,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/69/detections/19670"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-041"/>
@@ -5042,18 +4343,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/68/detections/19667"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-042"/>
@@ -5080,18 +4369,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/62/detections/19661"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-043"/>
@@ -5118,18 +4395,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/698/detections/16964"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-044"/>
@@ -5156,18 +4421,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/290/detections/4740"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-045"/>
@@ -5194,18 +4447,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/users/user.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/897/detections/27761"/>
-    <s v="Customer code - direct calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-046"/>
@@ -5232,18 +4473,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/owa/settings"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/907/detections/27847"/>
-    <s v="Customer code - direct calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-047"/>
@@ -5270,18 +4499,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.action"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/711/detections/28070"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-048"/>
@@ -5308,18 +4525,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/initialsetup"/>
-    <s v="page=chooselang.vm&amp;locale=en&amp;remember=Remember&amp;continue.x=21&amp;continue.y=25"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-049"/>
@@ -5346,18 +4551,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
-    <m/>
   </r>
   <r>
     <s v="IAST2-050"/>
@@ -5384,18 +4577,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/coreapps/systemadministration/systemAdministration.page"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-051"/>
@@ -5422,18 +4603,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/ms/call/plaincall/DWRPersonService.getSimilarPeople.dwr"/>
-    <s v="callCount=1_x000a_page=/openmrs/admin/person/addPerson.htm?addName=Avi&amp;amp;addBirthdate=10%2F10%2F1997&amp;amp;addAge=&amp;amp;addGender=F&amp;amp;personType=patient&amp;amp;viewType=edit_x000a_httpSessionId=_x000a_scriptSessionId=1DB52756DBD08535BE146D2682F709D113_x000a_c0-scriptName=DWRPerson"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-052"/>
@@ -5460,18 +4629,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <s v="/openmrs/module/owa/settings.form"/>
-    <s v="properties%5B0%5D.propertyValue=&amp;properties%5B1%5D.propertyValue=%2Fsrv%2F.OpenMRS%2Fowa&amp;properties%5B2%5D.propertyValue=http%3A%2F%2Fmodules.malicious.attacker.org"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-053"/>
@@ -5498,18 +4655,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <s v="/openmrs/admin/users/alert.form"/>
-    <s v="text=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E&amp;userIds=1+&amp;newRoles=&amp;_satisfiedByAny=on&amp;satisfiedByAny=on&amp;dateToExpire="/>
-    <s v="alertId=1"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-054"/>
@@ -5536,18 +4681,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <s v="/openmrs/admin/users/user.form"/>
-    <m/>
-    <s v="userId=3"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-055"/>
@@ -5573,18 +4706,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <s v="/openmrs/module/owa/addApp"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/876/detections/27647"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -5612,18 +4733,6 @@
     <m/>
     <n v="1"/>
     <m/>
-    <s v="/openmrs/**/*.action"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/1043/detections/28126"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-057"/>
@@ -5650,18 +4759,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/55/detections/19647"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-058"/>
@@ -5688,18 +4785,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/users/users"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/891/detections/27961"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-059"/>
@@ -5726,18 +4811,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/dwr/engine.js"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/282/detections/27957"/>
-    <s v="Customer code - direct calls"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-060"/>
@@ -5764,18 +4837,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/owa/settings"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/901/detections/27864"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-061"/>
@@ -5802,18 +4863,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/owa/manage"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/879/detections/27858"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-062"/>
@@ -5840,18 +4889,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/871/detections/27775"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-063"/>
@@ -5878,18 +4915,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/module/dataexchange/import"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/881/detections/27660"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-064"/>
@@ -5916,18 +4941,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/patients/patient.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/687/detections/16753"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-065"/>
@@ -5954,18 +4967,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/patients/index"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/681/detections/16723"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-066"/>
@@ -5992,18 +4993,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/patientDashboard.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/645/detections/7809"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-067"/>
@@ -6030,18 +5019,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/users/users"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/891/detections/27961"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-068"/>
@@ -6068,18 +5045,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/719/detections/27434"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-069"/>
@@ -6106,18 +5071,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/**/*.page"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/700/detections/28147"/>
-    <s v="Customer code - nested calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-070"/>
@@ -6144,18 +5097,6 @@
     <m/>
     <m/>
     <m/>
-    <s v="/openmrs/admin/users/user.form"/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/80/detections/27994"/>
-    <s v="Third-party code"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-071"/>
@@ -6182,18 +5123,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="http://152.7.176.31:8080/vulnerabilities/94/detections/19685"/>
-    <s v="Customer code - direct calls"/>
-    <x v="1"/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <b v="1"/>
   </r>
   <r>
     <m/>
@@ -6215,18 +5144,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -7740,6 +6657,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/initialsetup"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-002"/>
@@ -7766,6 +6695,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/dwr/interface/DWRPatientService.js"/>
+    <m/>
+    <s v="v=2.1.3-33f4e7"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-011"/>
@@ -7792,6 +6733,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/58/detections/27421"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-012"/>
@@ -7818,6 +6771,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/729/detections/19683"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-014"/>
@@ -7843,6 +6808,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <m/>
+    <s v="/openmrs/referenceapplication/login.page"/>
+    <s v="username=nurse&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=6&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -7870,6 +6847,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.action"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/279/detections/28125"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-016"/>
@@ -7896,6 +6885,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/users/user.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/997/detections/27990"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-017"/>
@@ -7922,6 +6923,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/78/detections/27818"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-018"/>
@@ -7948,6 +6961,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/module/dataexchange/import"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/882/detections/27662"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-019"/>
@@ -7974,6 +6999,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/module/owa/addApp"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/875/detections/27642"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-020"/>
@@ -8000,6 +7037,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/users/alert.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/857/detections/26625"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-021"/>
@@ -8026,6 +7075,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/ms/call/plaincall/DWRUserService.getAllUsers.dwr"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/856/detections/26619"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-022"/>
@@ -8052,6 +7113,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/patients/patient.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/679/detections/16751"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-023"/>
@@ -8078,6 +7151,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/ms/call/plaincall/DWRPatientService.findCountAndPatients.dwr"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/644/detections/7797"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST1-024"/>
@@ -8104,6 +7189,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST1-025"/>
@@ -8130,6 +7227,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/rest/v1/:resource"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/873/detections/27494"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST12-001"/>
@@ -8156,6 +7265,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/61/detections/19660"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-002"/>
@@ -8182,6 +7303,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/owa/addApp"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/874/detections/27632"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-003"/>
@@ -8208,6 +7341,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-004"/>
@@ -8234,6 +7379,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <s v="/openmrs/**/*.action"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/71/detections/28122"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-005"/>
@@ -8260,6 +7417,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/scripts/validation.js"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/66/detections/27977"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST12-006"/>
@@ -8286,6 +7455,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/rest/emrapi/conditionhistory"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/84/detections/20320"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-001"/>
@@ -8312,6 +7493,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/65/detections/28083"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-004"/>
@@ -8338,6 +7531,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/rest/emrapi/conditionhistory"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/85/detections/20321"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-005"/>
@@ -8364,6 +7569,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/findPatient.htm"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/643/detections/7793"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-006"/>
@@ -8390,6 +7607,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/**/*.action"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/47/detections/28124"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-007"/>
@@ -8416,6 +7645,18 @@
     <n v="1"/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/52/detections/27417"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-008"/>
@@ -8442,6 +7683,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/rest/v1/:resource/:uuid"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/86/detections/28101"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-009"/>
@@ -8468,6 +7721,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/admin/users/users.list"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/883/detections/27691"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-010"/>
@@ -8494,6 +7759,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/864/detections/27078"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-011"/>
@@ -8520,6 +7797,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/rest/v1/:resource"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/781/detections/20176"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-012"/>
@@ -8546,6 +7835,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/rest/v1/:resource"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/780/detections/20175"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-013"/>
@@ -8572,6 +7873,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/rest/v1/:resource"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/92/detections/19250"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-014"/>
@@ -8598,6 +7911,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/rest/v1/:resource/:uuid"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/725/detections/27001"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-015"/>
@@ -8624,6 +7949,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/708/detections/26036"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-016"/>
@@ -8650,6 +7987,18 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-017"/>
@@ -8676,6 +8025,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/56/detections/27422"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-018"/>
@@ -8702,6 +8063,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/59/detections/27419"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-019"/>
@@ -8728,6 +8101,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/ms/uiframework/resource/uicommons/styles/styleguide/jquery-ui-1.9.2.custom.min.css"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/60/detections/27425"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-020"/>
@@ -8754,6 +8139,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/57/detections/27424"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="1"/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-021"/>
@@ -8780,6 +8177,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/48/detections/27416"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-022"/>
@@ -8804,6 +8213,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <m/>
+    <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/51/detections/27420"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <b v="1"/>
     <m/>
     <m/>
   </r>
@@ -8832,6 +8253,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/owa/settings"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/902/detections/27836"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-024"/>
@@ -8858,6 +8291,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/863/detections/27072"/>
+    <s v="Customer code - direct calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-025"/>
@@ -8884,6 +8329,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/patients/patient.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/683/detections/16736"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-026"/>
@@ -8910,6 +8367,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/index.htm"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/853/detections/26600"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-027"/>
@@ -8936,6 +8405,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/dataexchange/import"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/188/detections/3510"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-028"/>
@@ -8962,6 +8443,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/initialsetup"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-029"/>
@@ -8988,6 +8481,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/moduleResources/legacyui/scripts/html-sanitizer-min.js"/>
+    <m/>
+    <s v="v=2.1.3-33f4e7"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-030"/>
@@ -9014,6 +8519,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/owa/SystemAdministration/css/moduleManagement.css"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-031"/>
@@ -9040,6 +8557,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <s v="/openmrs/admin/maintenance/serverLog.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/284/detections/4718"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-032"/>
@@ -9066,6 +8595,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/patients/patient.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/637/detections/7767"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-033"/>
@@ -9092,6 +8633,18 @@
     <m/>
     <m/>
     <n v="1"/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/72/detections/28082"/>
+    <s v="Customer code - direct calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-034"/>
@@ -9117,6 +8670,18 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <s v="/openmrs/**/*.action"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/869/detections/27925"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -9143,6 +8708,18 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <s v="/openmrs/login.htm"/>
+    <s v="username=nurse&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Fhome.page"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -9170,6 +8747,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/860/detections/28010"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-037"/>
@@ -9196,6 +8785,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/278/detections/27813"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-038"/>
@@ -9222,6 +8823,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/88/detections/27171"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-039"/>
@@ -9248,6 +8861,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/67/detections/19682"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-040"/>
@@ -9274,6 +8899,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/69/detections/19670"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-041"/>
@@ -9300,6 +8937,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/68/detections/19667"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-042"/>
@@ -9326,6 +8975,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/62/detections/19661"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-043"/>
@@ -9352,6 +9013,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/698/detections/16964"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-044"/>
@@ -9378,6 +9051,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/290/detections/4740"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-045"/>
@@ -9404,6 +9089,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/users/user.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/897/detections/27761"/>
+    <s v="Customer code - direct calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-046"/>
@@ -9430,6 +9127,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/owa/settings"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/907/detections/27847"/>
+    <s v="Customer code - direct calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-047"/>
@@ -9456,6 +9165,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.action"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/711/detections/28070"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-048"/>
@@ -9482,6 +9203,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/initialsetup"/>
+    <s v="page=chooselang.vm&amp;locale=en&amp;remember=Remember&amp;continue.x=21&amp;continue.y=25"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-049"/>
@@ -9508,6 +9241,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
+    <m/>
   </r>
   <r>
     <s v="IAST2-050"/>
@@ -9534,6 +9279,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/coreapps/systemadministration/systemAdministration.page"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-051"/>
@@ -9560,6 +9317,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/ms/call/plaincall/DWRPersonService.getSimilarPeople.dwr"/>
+    <s v="callCount=1_x000a_page=/openmrs/admin/person/addPerson.htm?addName=Avi&amp;amp;addBirthdate=10%2F10%2F1997&amp;amp;addAge=&amp;amp;addGender=F&amp;amp;personType=patient&amp;amp;viewType=edit_x000a_httpSessionId=_x000a_scriptSessionId=1DB52756DBD08535BE146D2682F709D113_x000a_c0-scriptName=DWRPerson"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-052"/>
@@ -9586,6 +9355,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <s v="/openmrs/module/owa/settings.form"/>
+    <s v="properties%5B0%5D.propertyValue=&amp;properties%5B1%5D.propertyValue=%2Fsrv%2F.OpenMRS%2Fowa&amp;properties%5B2%5D.propertyValue=http%3A%2F%2Fmodules.malicious.attacker.org"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-053"/>
@@ -9612,6 +9393,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <s v="/openmrs/admin/users/alert.form"/>
+    <s v="text=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E&amp;userIds=1+&amp;newRoles=&amp;_satisfiedByAny=on&amp;satisfiedByAny=on&amp;dateToExpire="/>
+    <s v="alertId=1"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-054"/>
@@ -9638,6 +9431,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <s v="/openmrs/admin/users/user.form"/>
+    <m/>
+    <s v="userId=3"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-055"/>
@@ -9663,6 +9468,18 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <s v="/openmrs/module/owa/addApp"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/876/detections/27647"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
     <m/>
   </r>
   <r>
@@ -9690,6 +9507,18 @@
     <m/>
     <n v="1"/>
     <m/>
+    <s v="/openmrs/**/*.action"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/1043/detections/28126"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-057"/>
@@ -9716,6 +9545,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/55/detections/19647"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-058"/>
@@ -9742,6 +9583,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/users/users"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/891/detections/27961"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-059"/>
@@ -9768,6 +9621,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/dwr/engine.js"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/282/detections/27957"/>
+    <s v="Customer code - direct calls"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-060"/>
@@ -9794,6 +9659,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/owa/settings"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/901/detections/27864"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-061"/>
@@ -9820,6 +9697,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/owa/manage"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/879/detections/27858"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-062"/>
@@ -9846,6 +9735,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/871/detections/27775"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-063"/>
@@ -9872,6 +9773,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/module/dataexchange/import"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/881/detections/27660"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-064"/>
@@ -9898,6 +9811,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/patients/patient.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/687/detections/16753"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-065"/>
@@ -9924,6 +9849,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/patients/index"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/681/detections/16723"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-066"/>
@@ -9950,6 +9887,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/patientDashboard.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/645/detections/7809"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-067"/>
@@ -9976,6 +9925,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/users/users"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/891/detections/27961"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-068"/>
@@ -10002,6 +9963,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/719/detections/27434"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-069"/>
@@ -10028,6 +10001,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/**/*.page"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/700/detections/28147"/>
+    <s v="Customer code - nested calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-070"/>
@@ -10054,6 +10039,18 @@
     <m/>
     <m/>
     <m/>
+    <s v="/openmrs/admin/users/user.form"/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/80/detections/27994"/>
+    <s v="Third-party code"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <s v="IAST2-071"/>
@@ -10080,6 +10077,18 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="http://152.7.176.31:8080/vulnerabilities/94/detections/19685"/>
+    <s v="Customer code - direct calls"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <b v="1"/>
   </r>
   <r>
     <m/>
@@ -10101,6 +10110,18 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -10111,7 +10132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="Sheet5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000001000000}" name="Sheet5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:I21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField name="VulnerabilityID" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10258,7 +10279,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000002000000}" name="Sheet6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000002000000}" name="Sheet6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:H13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField name="VulnerabilityID" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10392,7 +10413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Sheet4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="Sheet4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:I12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField name="VulnerabilityID" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -18771,363 +18792,363 @@
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44">
         <v>3</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45">
-        <v>1</v>
-      </c>
-      <c r="D6" s="45">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
         <v>10</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="53">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45">
-        <v>1</v>
-      </c>
-      <c r="D7" s="45">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47">
         <v>3</v>
       </c>
-      <c r="E7" s="45">
-        <v>1</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46">
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47">
         <v>10</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="47">
         <v>3</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="53">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="46">
         <v>5</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47">
         <v>2</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45">
-        <v>1</v>
-      </c>
-      <c r="D11" s="45">
-        <v>1</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <v>2</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="53">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45">
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47">
         <v>8</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46">
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47">
         <v>4</v>
       </c>
-      <c r="E14" s="45">
-        <v>1</v>
-      </c>
-      <c r="F14" s="45">
+      <c r="E14" s="47">
+        <v>1</v>
+      </c>
+      <c r="F14" s="47">
         <v>12</v>
       </c>
-      <c r="G14" s="45">
-        <v>1</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46">
+      <c r="G14" s="47">
+        <v>1</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="53">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45">
-        <v>1</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47">
+        <v>1</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47">
         <v>2</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46">
+      <c r="H15" s="47"/>
+      <c r="I15" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45">
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47">
         <v>10</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="47">
         <v>3</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46">
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="53">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45">
-        <v>1</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47">
+        <v>1</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47">
         <v>3</v>
       </c>
-      <c r="E18" s="45">
-        <v>1</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46">
+      <c r="E18" s="47">
+        <v>1</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45">
-        <v>1</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47">
+        <v>1</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="A20" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="49">
         <v>7</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="50">
         <v>8</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="50">
         <v>21</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="50">
         <v>34</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="50">
         <v>18</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="50">
         <v>3</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50">
+      <c r="H21" s="50"/>
+      <c r="I21" s="54">
         <v>91</v>
       </c>
     </row>
@@ -20137,218 +20158,218 @@
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="36" t="s">
-        <v>646</v>
-      </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>644</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
-        <v>644</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44">
         <v>7</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="43">
         <v>7</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="42">
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="52">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="44">
-        <v>1</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="B7" s="46">
+        <v>1</v>
+      </c>
+      <c r="C7" s="47">
         <v>4</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="46">
         <v>5</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="46">
         <v>3</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44">
+      <c r="F7" s="47"/>
+      <c r="G7" s="46">
         <v>3</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="53">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47">
         <v>12</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="46">
         <v>12</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="46">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44">
+      <c r="F8" s="47"/>
+      <c r="G8" s="46">
         <v>9</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="53">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="46">
         <v>3</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="47">
         <v>30</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="46">
         <v>33</v>
       </c>
-      <c r="E9" s="44">
-        <v>1</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="44">
-        <v>1</v>
-      </c>
-      <c r="H9" s="46">
+      <c r="E9" s="46">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="46">
+        <v>1</v>
+      </c>
+      <c r="H9" s="53">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47">
         <v>18</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="46">
         <v>18</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="46">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="53">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46">
         <v>3</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="44">
+      <c r="F11" s="47"/>
+      <c r="G11" s="46">
         <v>3</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="46"/>
+      <c r="A12" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="49">
         <v>4</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="50">
         <v>71</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="49">
         <v>75</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="49">
         <v>16</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48">
+      <c r="F13" s="50"/>
+      <c r="G13" s="49">
         <v>16</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="54">
         <v>91</v>
       </c>
     </row>
@@ -21370,220 +21391,220 @@
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44">
         <v>7</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44">
         <v>2</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="46">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
-        <v>1</v>
-      </c>
-      <c r="D6" s="45">
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
         <v>3</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="47">
         <v>5</v>
       </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45">
-        <v>1</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="53">
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <v>10</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="47">
         <v>3</v>
       </c>
-      <c r="D7" s="45">
-        <v>1</v>
-      </c>
-      <c r="E7" s="45">
+      <c r="D7" s="47">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47">
         <v>4</v>
       </c>
-      <c r="F7" s="45">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45">
+      <c r="F7" s="47">
+        <v>1</v>
+      </c>
+      <c r="G7" s="47">
         <v>10</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="47">
         <v>3</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47">
         <v>11</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="47">
         <v>8</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="47">
         <v>2</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="47">
         <v>21</v>
       </c>
-      <c r="G8" s="45">
-        <v>1</v>
-      </c>
-      <c r="H8" s="45">
-        <v>1</v>
-      </c>
-      <c r="I8" s="53">
+      <c r="G8" s="47">
+        <v>1</v>
+      </c>
+      <c r="H8" s="47">
+        <v>1</v>
+      </c>
+      <c r="I8" s="48">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47">
         <v>3</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47">
         <v>12</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="47">
         <v>6</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="53"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47">
         <v>3</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="47">
         <v>2</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="53"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="53"/>
+      <c r="A11" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="49">
         <v>14</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="50">
         <v>18</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="50">
         <v>19</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="50">
         <v>26</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <v>31</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="50">
         <v>12</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="50">
         <v>6</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="51">
         <v>12</v>
       </c>
     </row>
@@ -22653,16 +22674,16 @@
         <v>53</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>54</v>
+        <v>651</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>33</v>
+        <v>649</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>34</v>
+        <v>649</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>56</v>
@@ -22806,7 +22827,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>87</v>
@@ -22841,7 +22862,7 @@
         <v>862</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>92</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22933,7 +22954,7 @@
         <v>108</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>109</v>
+        <v>653</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -23705,7 +23726,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>146</v>
@@ -23757,7 +23778,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>151</v>
@@ -23912,7 +23933,7 @@
         <v>98</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>166</v>
@@ -23966,7 +23987,7 @@
         <v>171</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>172</v>
@@ -24018,7 +24039,7 @@
         <v>177</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>172</v>
@@ -24070,7 +24091,7 @@
         <v>171</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>182</v>
@@ -24125,7 +24146,7 @@
         <v>177</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>182</v>
@@ -24180,7 +24201,7 @@
         <v>188</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>182</v>
@@ -24237,7 +24258,7 @@
         <v>98</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>194</v>
@@ -24289,7 +24310,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>199</v>
@@ -24347,7 +24368,7 @@
         <v>205</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>206</v>
@@ -24405,7 +24426,7 @@
         <v>205</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>206</v>
@@ -24515,7 +24536,7 @@
         <v>205</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>206</v>
@@ -24570,7 +24591,7 @@
         <v>205</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>206</v>
@@ -24827,7 +24848,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>242</v>
@@ -24876,7 +24897,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>242</v>
@@ -24925,7 +24946,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>242</v>
@@ -24974,7 +24995,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>242</v>
@@ -25026,7 +25047,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>242</v>
@@ -25075,7 +25096,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>242</v>
@@ -25581,7 +25602,7 @@
         <v>302</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>303</v>
@@ -25691,7 +25712,7 @@
         <v>313</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>314</v>
@@ -25742,7 +25763,7 @@
         <v>98</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>318</v>
@@ -25806,7 +25827,7 @@
         <v>322</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>323</v>
+        <v>654</v>
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -25844,7 +25865,7 @@
         <v>327</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>328</v>
@@ -25955,7 +25976,7 @@
         <v>327</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>328</v>
@@ -26010,7 +26031,7 @@
         <v>327</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>328</v>
@@ -26066,7 +26087,7 @@
         <v>327</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>328</v>
@@ -26122,7 +26143,7 @@
         <v>327</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>328</v>
@@ -26177,7 +26198,7 @@
         <v>327</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>328</v>
@@ -26232,7 +26253,7 @@
         <v>327</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>328</v>
@@ -26287,7 +26308,7 @@
         <v>327</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>328</v>
@@ -26342,7 +26363,7 @@
         <v>354</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>328</v>
@@ -26397,7 +26418,7 @@
         <v>358</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>328</v>
@@ -26835,7 +26856,7 @@
         <v>397</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>398</v>
@@ -26941,7 +26962,7 @@
         <v>98</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>408</v>
@@ -26992,7 +27013,7 @@
         <v>412</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>413</v>
@@ -27043,7 +27064,7 @@
         <v>417</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>413</v>
@@ -27096,7 +27117,7 @@
         <v>421</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>413</v>
@@ -27147,7 +27168,7 @@
         <v>424</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>413</v>
@@ -27198,7 +27219,7 @@
         <v>428</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>413</v>
@@ -27249,7 +27270,7 @@
         <v>431</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>413</v>
@@ -27300,7 +27321,7 @@
         <v>434</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>413</v>
@@ -27351,7 +27372,7 @@
         <v>437</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>413</v>
@@ -27402,7 +27423,7 @@
         <v>441</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>413</v>
@@ -27453,7 +27474,7 @@
         <v>412</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>413</v>
@@ -27525,7 +27546,7 @@
         <v>448</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>449</v>
@@ -27576,7 +27597,7 @@
         <v>453</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>454</v>
@@ -27633,7 +27654,7 @@
         <v>459</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>454</v>
@@ -27685,7 +27706,7 @@
         <v>463</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>454</v>
@@ -28764,7 +28785,9 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28776,22 +28799,22 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>466</v>
+        <v>646</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>33</v>
+        <v>649</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>468</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>469</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -28816,47 +28839,47 @@
       <c r="AA1" s="15"/>
       <c r="AB1" s="15"/>
       <c r="AC1" s="15" t="s">
-        <v>33</v>
+        <v>649</v>
       </c>
       <c r="AD1" s="15"/>
       <c r="AE1" s="15"/>
       <c r="AF1" s="15" t="s">
-        <v>34</v>
+        <v>647</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>33</v>
+        <v>649</v>
       </c>
       <c r="AH1" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>476</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>477</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>325</v>
@@ -28890,24 +28913,24 @@
     </row>
     <row r="3" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>478</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>479</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>325</v>
@@ -28941,24 +28964,24 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>480</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>481</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>325</v>
@@ -28992,24 +29015,24 @@
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>372</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>325</v>
@@ -29044,24 +29067,24 @@
     <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>485</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>486</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>229</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -29092,18 +29115,18 @@
     </row>
     <row r="7" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>89</v>
@@ -29143,18 +29166,18 @@
     </row>
     <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>89</v>
@@ -29195,15 +29218,15 @@
     <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="17" t="s">
         <v>484</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="17" t="s">
-        <v>485</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>263</v>
@@ -29243,18 +29266,18 @@
     </row>
     <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>116</v>
@@ -29294,18 +29317,18 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>89</v>
@@ -29345,52 +29368,52 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E12" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>402</v>
       </c>
       <c r="J12" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="N12" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="O12" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="15"/>
@@ -29414,48 +29437,48 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>402</v>
       </c>
       <c r="J13" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="N13" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="O13" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="O13" s="17" t="s">
+      <c r="P13" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="15"/>
@@ -29480,45 +29503,45 @@
     <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>402</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="N14" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="O14" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="O14" s="17" t="s">
+      <c r="P14" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="15"/>
@@ -29543,45 +29566,45 @@
     <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>402</v>
       </c>
       <c r="J15" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="N15" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="M15" s="17" t="s">
+      <c r="O15" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="O15" s="17" t="s">
+      <c r="P15" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="15"/>
@@ -29605,48 +29628,48 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>402</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K16" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="M16" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="N16" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="N16" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="O16" s="17" t="s">
+      <c r="P16" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="15"/>
@@ -29670,22 +29693,22 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>505</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>506</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>291</v>
@@ -29697,7 +29720,7 @@
         <v>76</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M17" s="19">
         <v>7</v>
@@ -29706,52 +29729,52 @@
         <v>1644550000000</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P17" s="20">
         <v>1647740000000</v>
       </c>
       <c r="Q17" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="S17" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17" t="s">
         <v>294</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W17" s="19">
         <v>8080</v>
       </c>
       <c r="X17" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y17" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z17" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AD17" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE17" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="AE17" s="17" t="s">
-        <v>497</v>
-      </c>
       <c r="AF17" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG17" s="15"/>
       <c r="AH17" s="14"/>
@@ -29759,22 +29782,22 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>516</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>517</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>291</v>
@@ -29786,7 +29809,7 @@
         <v>76</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M18" s="19">
         <v>7</v>
@@ -29795,49 +29818,49 @@
         <v>1644550000000</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P18" s="20">
         <v>1647740000000</v>
       </c>
       <c r="Q18" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R18" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="S18" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="17" t="s">
         <v>294</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W18" s="19">
         <v>8080</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y18" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD18" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE18" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF18" s="17"/>
       <c r="AG18" s="15"/>
@@ -29846,24 +29869,24 @@
     </row>
     <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>520</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>521</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>291</v>
@@ -29875,7 +29898,7 @@
         <v>76</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M19" s="19">
         <v>7</v>
@@ -29884,49 +29907,49 @@
         <v>1644550000000</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P19" s="20">
         <v>1647740000000</v>
       </c>
       <c r="Q19" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="S19" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T19" s="17"/>
       <c r="U19" s="17" t="s">
         <v>294</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W19" s="19">
         <v>8080</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y19" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z19" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AD19" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE19" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF19" s="17"/>
       <c r="AG19" s="15"/>
@@ -29937,16 +29960,16 @@
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>523</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>524</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>291</v>
@@ -29958,7 +29981,7 @@
         <v>76</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M20" s="19">
         <v>6</v>
@@ -29967,49 +29990,49 @@
         <v>1645340000000</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P20" s="20">
         <v>1647730000000</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R20" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S20" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T20" s="17"/>
       <c r="U20" s="17" t="s">
         <v>294</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W20" s="19">
         <v>8080</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y20" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AD20" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE20" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="AE20" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="AF20" s="17"/>
       <c r="AG20" s="15"/>
@@ -30018,23 +30041,23 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>528</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>529</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>285</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>66</v>
@@ -30046,7 +30069,7 @@
         <v>68</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L21" s="19">
         <v>0</v>
@@ -30055,32 +30078,32 @@
         <v>1638760000000</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O21" s="20">
         <v>1648180000000</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q21" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="R21" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17" t="s">
         <v>288</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V21" s="19">
         <v>8080</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X21" s="19">
         <v>1.1000000000000001</v>
@@ -30091,16 +30114,16 @@
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD21" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE21" s="17" t="s">
-        <v>533</v>
+        <v>648</v>
       </c>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
@@ -30109,24 +30132,24 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="41" t="s">
         <v>235</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>235</v>
@@ -30138,7 +30161,7 @@
         <v>95</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M22" s="19">
         <v>1</v>
@@ -30147,32 +30170,32 @@
         <v>1644450000000</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P22" s="20">
         <v>1648170000000</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="R22" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S22" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="17" t="s">
         <v>238</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W22" s="19">
         <v>8080</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y22" s="19">
         <v>1.1000000000000001</v>
@@ -30183,13 +30206,13 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AD22" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE22" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF22" s="17"/>
       <c r="AG22" s="15"/>
@@ -30198,26 +30221,26 @@
     </row>
     <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="H23" s="17" t="s">
         <v>540</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>542</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>235</v>
@@ -30229,7 +30252,7 @@
         <v>95</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M23" s="19">
         <v>1</v>
@@ -30238,32 +30261,32 @@
         <v>1639280000000</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P23" s="20">
         <v>1644450000000</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R23" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S23" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="17" t="s">
         <v>238</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W23" s="19">
         <v>8080</v>
       </c>
       <c r="X23" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y23" s="19">
         <v>1.1000000000000001</v>
@@ -30276,13 +30299,13 @@
       </c>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE23" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF23" s="17"/>
       <c r="AG23" s="15"/>
@@ -30292,15 +30315,15 @@
     <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>411</v>
@@ -30309,32 +30332,32 @@
         <v>448</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L24" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N24" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -30357,15 +30380,15 @@
     <row r="25" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>411</v>
@@ -30374,31 +30397,31 @@
         <v>448</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L25" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N25" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>112</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R25" s="17"/>
       <c r="S25" s="15"/>
@@ -30422,46 +30445,46 @@
     <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>411</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L26" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N26" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O26" s="17"/>
       <c r="P26" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R26" s="17"/>
       <c r="S26" s="15"/>
@@ -30485,48 +30508,48 @@
     <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>411</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L27" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N27" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O27" s="17" t="s">
         <v>89</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R27" s="17"/>
       <c r="S27" s="15"/>
@@ -30549,18 +30572,18 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>411</v>
@@ -30569,31 +30592,31 @@
         <v>417</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L28" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N28" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O28" s="17" t="s">
         <v>418</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R28" s="17"/>
       <c r="S28" s="15"/>
@@ -30616,18 +30639,18 @@
     </row>
     <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>411</v>
@@ -30636,31 +30659,31 @@
         <v>412</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L29" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N29" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O29" s="17" t="s">
         <v>414</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="15"/>
@@ -30684,15 +30707,15 @@
     <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+        <v>537</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>411</v>
@@ -30701,31 +30724,31 @@
         <v>421</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L30" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N30" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O30" s="17" t="s">
         <v>263</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R30" s="17"/>
       <c r="S30" s="15"/>
@@ -30749,15 +30772,15 @@
     <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+        <v>537</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>411</v>
@@ -30766,31 +30789,31 @@
         <v>431</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>413</v>
       </c>
       <c r="L31" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="N31" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="O31" s="17" t="s">
         <v>122</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R31" s="17"/>
       <c r="S31" s="15"/>
@@ -30814,23 +30837,23 @@
     <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>553</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>555</v>
-      </c>
       <c r="F32" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>105</v>
@@ -30855,38 +30878,38 @@
         <v>4</v>
       </c>
       <c r="S32" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="U32" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="T32" s="17" t="s">
+      <c r="V32" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="U32" s="17" t="s">
+      <c r="W32" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="V32" s="17" t="s">
+      <c r="X32" s="17" t="s">
         <v>560</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA32" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AB32" s="17" t="s">
         <v>116</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD32" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE32" s="17"/>
       <c r="AF32" s="15"/>
@@ -30897,19 +30920,19 @@
     <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+        <v>551</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>105</v>
@@ -30934,38 +30957,38 @@
         <v>1</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U33" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="W33" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="V33" s="17" t="s">
+      <c r="X33" s="17" t="s">
         <v>560</v>
-      </c>
-      <c r="W33" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AB33" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD33" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE33" s="17"/>
       <c r="AF33" s="15"/>
@@ -30975,16 +30998,16 @@
     </row>
     <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+        <v>551</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>103</v>
@@ -30999,7 +31022,7 @@
         <v>76</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L34" s="19">
         <v>0</v>
@@ -31008,51 +31031,51 @@
         <v>1639280000000</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O34" s="20">
         <v>1647930000000</v>
       </c>
       <c r="P34" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q34" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="R34" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="R34" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="17" t="s">
         <v>107</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V34" s="19">
         <v>8080</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X34" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y34" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Z34" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AC34" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD34" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE34" s="17"/>
       <c r="AF34" s="15"/>
@@ -31062,26 +31085,26 @@
     </row>
     <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E35" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="F35" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="H35" s="17" t="s">
         <v>574</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>576</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>74</v>
@@ -31093,7 +31116,7 @@
         <v>76</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M35" s="19">
         <v>12</v>
@@ -31102,54 +31125,54 @@
         <v>1639280000000</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P35" s="20">
         <v>1648170000000</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R35" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S35" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T35" s="17"/>
       <c r="U35" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W35" s="19">
         <v>8080</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y35" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AA35" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AB35" s="17"/>
       <c r="AC35" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AD35" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE35" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF35" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG35" s="15"/>
       <c r="AH35" s="14"/>
@@ -31157,22 +31180,22 @@
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+        <v>570</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>74</v>
@@ -31184,7 +31207,7 @@
         <v>76</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M36" s="19">
         <v>6</v>
@@ -31193,49 +31216,49 @@
         <v>1644550000000</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P36" s="20">
         <v>1644550000000</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R36" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S36" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S36" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T36" s="17"/>
       <c r="U36" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W36" s="19">
         <v>8080</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y36" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
       <c r="AC36" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AD36" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE36" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="AE36" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="15"/>
@@ -31244,22 +31267,22 @@
     </row>
     <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+        <v>570</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>74</v>
@@ -31271,7 +31294,7 @@
         <v>76</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M37" s="19">
         <v>6</v>
@@ -31280,51 +31303,51 @@
         <v>1644550000000</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P37" s="20">
         <v>1644550000000</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R37" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S37" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S37" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T37" s="17"/>
       <c r="U37" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W37" s="19">
         <v>8080</v>
       </c>
       <c r="X37" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y37" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z37" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AA37" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AB37" s="17"/>
       <c r="AC37" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AD37" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE37" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="AE37" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="AF37" s="17"/>
       <c r="AG37" s="15"/>
@@ -31333,22 +31356,22 @@
     </row>
     <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+        <v>570</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>74</v>
@@ -31360,7 +31383,7 @@
         <v>76</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M38" s="19">
         <v>6</v>
@@ -31369,49 +31392,49 @@
         <v>1644550000000</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P38" s="20">
         <v>1644550000000</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R38" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S38" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S38" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T38" s="17"/>
       <c r="U38" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W38" s="19">
         <v>8080</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y38" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z38" s="17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
       <c r="AC38" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AD38" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE38" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="AE38" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="AF38" s="17"/>
       <c r="AG38" s="15"/>
@@ -31420,22 +31443,22 @@
     </row>
     <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+        <v>570</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>74</v>
@@ -31447,7 +31470,7 @@
         <v>76</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M39" s="19">
         <v>6</v>
@@ -31456,49 +31479,49 @@
         <v>1647790000000</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P39" s="20">
         <v>1647790000000</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="R39" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S39" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T39" s="17"/>
       <c r="U39" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W39" s="19">
         <v>8080</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y39" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z39" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
       <c r="AC39" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AD39" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE39" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="AE39" s="17" t="s">
-        <v>497</v>
       </c>
       <c r="AF39" s="17"/>
       <c r="AG39" s="15"/>
@@ -31507,32 +31530,32 @@
     </row>
     <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>595</v>
-      </c>
       <c r="F40" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="J40" s="17" t="s">
         <v>596</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>598</v>
       </c>
       <c r="K40" s="17" t="s">
         <v>84</v>
@@ -31548,46 +31571,46 @@
       </c>
       <c r="Q40" s="17"/>
       <c r="R40" s="17" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="S40" s="19">
         <v>1</v>
       </c>
       <c r="T40" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="V40" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="W40" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="X40" s="17" t="s">
         <v>599</v>
-      </c>
-      <c r="U40" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="V40" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="W40" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="X40" s="17" t="s">
-        <v>601</v>
       </c>
       <c r="Y40" s="17" t="s">
         <v>408</v>
       </c>
       <c r="Z40" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA40" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB40" s="17" t="s">
         <v>602</v>
-      </c>
-      <c r="AA40" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="AB40" s="17" t="s">
-        <v>604</v>
       </c>
       <c r="AC40" s="17" t="s">
         <v>89</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF40" s="17"/>
       <c r="AG40" s="15"/>
@@ -31596,19 +31619,19 @@
     </row>
     <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+        <v>591</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>66</v>
@@ -31620,7 +31643,7 @@
         <v>68</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L41" s="19">
         <v>0</v>
@@ -31629,49 +31652,49 @@
         <v>1638760000000</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O41" s="20">
         <v>1647930000000</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q41" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="R41" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17" t="s">
         <v>70</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V41" s="19">
         <v>8080</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X41" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y41" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE41" s="17"/>
       <c r="AF41" s="15"/>
@@ -31681,21 +31704,21 @@
     </row>
     <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+        <v>591</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>66</v>
@@ -31707,7 +31730,7 @@
         <v>68</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L42" s="19">
         <v>0</v>
@@ -31716,32 +31739,32 @@
         <v>1638760000000</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O42" s="20">
         <v>1648180000000</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q42" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="R42" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="S42" s="17"/>
       <c r="T42" s="17" t="s">
         <v>70</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V42" s="19">
         <v>8080</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="X42" s="19">
         <v>1.1000000000000001</v>
@@ -31752,13 +31775,13 @@
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AC42" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AE42" s="17"/>
       <c r="AF42" s="15"/>
@@ -31768,38 +31791,38 @@
     </row>
     <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>83</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>104</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K43" s="17" t="s">
         <v>68</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M43" s="19">
         <v>0</v>
@@ -31808,32 +31831,32 @@
         <v>1638760000000</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="P43" s="20">
         <v>1648180000000</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R43" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S43" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T43" s="17"/>
       <c r="U43" s="17" t="s">
         <v>88</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W43" s="19">
         <v>8080</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y43" s="19">
         <v>1.1000000000000001</v>
@@ -31844,13 +31867,13 @@
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
       <c r="AC43" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF43" s="17"/>
       <c r="AG43" s="15"/>
@@ -31860,26 +31883,26 @@
     <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D44" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="D44" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>616</v>
+      <c r="E44" s="38" t="s">
+        <v>614</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>261</v>
@@ -31908,40 +31931,40 @@
         <v>3</v>
       </c>
       <c r="T44" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="V44" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="W44" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="U44" s="15" t="s">
+      <c r="X44" s="15" t="s">
         <v>619</v>
-      </c>
-      <c r="V44" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>621</v>
       </c>
       <c r="Y44" s="15" t="s">
         <v>266</v>
       </c>
       <c r="Z44" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB44" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="AA44" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB44" s="15" t="s">
-        <v>624</v>
       </c>
       <c r="AC44" s="15" t="s">
         <v>278</v>
       </c>
       <c r="AD44" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE44" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF44" s="15"/>
       <c r="AG44" s="15"/>
@@ -31951,22 +31974,22 @@
     <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+        <v>613</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>261</v>
@@ -31979,13 +32002,13 @@
         <v>414</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O45" s="15" t="s">
         <v>97</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Q45" s="15"/>
       <c r="R45" s="15" t="s">
@@ -31995,40 +32018,40 @@
         <v>1</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="U45" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="V45" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W45" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="X45" s="15" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Y45" s="15" t="s">
         <v>266</v>
       </c>
       <c r="Z45" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA45" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB45" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="AA45" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB45" s="15" t="s">
-        <v>624</v>
       </c>
       <c r="AC45" s="15" t="s">
         <v>414</v>
       </c>
       <c r="AD45" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE45" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF45" s="15"/>
       <c r="AG45" s="15"/>
@@ -32037,25 +32060,25 @@
     </row>
     <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+        <v>613</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>261</v>
@@ -32084,40 +32107,40 @@
         <v>1</v>
       </c>
       <c r="T46" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U46" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W46" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Y46" s="15" t="s">
         <v>266</v>
       </c>
       <c r="Z46" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA46" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB46" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="AA46" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB46" s="15" t="s">
-        <v>624</v>
       </c>
       <c r="AC46" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AD46" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE46" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF46" s="15"/>
       <c r="AG46" s="15"/>
@@ -32126,34 +32149,34 @@
     </row>
     <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+        <v>613</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G47" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="I47" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="J47" s="17" t="s">
         <v>632</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>634</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>76</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M47" s="19">
         <v>52</v>
@@ -32162,54 +32185,54 @@
         <v>1639280000000</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P47" s="20">
         <v>1647790000000</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="R47" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S47" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T47" s="17"/>
       <c r="U47" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W47" s="19">
         <v>8080</v>
       </c>
       <c r="X47" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y47" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z47" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AA47" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AB47" s="17"/>
       <c r="AC47" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AD47" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE47" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF47" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AG47" s="15"/>
       <c r="AH47" s="14"/>
@@ -32217,34 +32240,34 @@
     </row>
     <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+        <v>613</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K48" s="17" t="s">
         <v>95</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M48" s="19">
         <v>79</v>
@@ -32253,49 +32276,49 @@
         <v>1644550000000</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P48" s="20">
         <v>1647790000000</v>
       </c>
       <c r="Q48" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="R48" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S48" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S48" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T48" s="17"/>
       <c r="U48" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="V48" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W48" s="19">
         <v>8080</v>
       </c>
       <c r="X48" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y48" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z48" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
       <c r="AC48" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AD48" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE48" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF48" s="17"/>
       <c r="AG48" s="15"/>
@@ -32304,36 +32327,36 @@
     </row>
     <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+        <v>613</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K49" s="17" t="s">
         <v>95</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M49" s="19">
         <v>43</v>
@@ -32342,49 +32365,49 @@
         <v>1644550000000</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P49" s="20">
         <v>1644550000000</v>
       </c>
       <c r="Q49" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R49" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="S49" s="17" t="s">
         <v>510</v>
-      </c>
-      <c r="S49" s="17" t="s">
-        <v>511</v>
       </c>
       <c r="T49" s="17"/>
       <c r="U49" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W49" s="19">
         <v>8080</v>
       </c>
       <c r="X49" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Y49" s="19">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z49" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AA49" s="17"/>
       <c r="AB49" s="17"/>
       <c r="AC49" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AD49" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AE49" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF49" s="17"/>
       <c r="AG49" s="15"/>
